--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_8_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_8_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.51118998387801</v>
+        <v>4479.726806791587</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.51118998387801</v>
+        <v>4479.726806791587</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86529.01154242536</v>
+        <v>5997912.163968689</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86529.01154242536</v>
+        <v>5997912.163968689</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494612407.10712</v>
+        <v>54029672.25534167</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15460.63228014464</v>
+        <v>1230744.76494165</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30127.8461183324</v>
+        <v>2325587.475128878</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>44800.40083675989</v>
+        <v>3420430.185316108</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>60436.55194435479</v>
+        <v>4446664.781700674</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>75416.63648477534</v>
+        <v>5539427.88956336</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>90396.72102519592</v>
+        <v>6632190.997426047</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>105376.8055656165</v>
+        <v>7724954.105288727</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>120356.8901060371</v>
+        <v>8817717.213151405</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>135991.5297480189</v>
+        <v>9843900.612658171</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>150970.3600935689</v>
+        <v>10936663.72052085</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>165949.190439119</v>
+        <v>12029426.82838353</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>180928.0207846691</v>
+        <v>13122189.93624621</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>195892.3213993226</v>
+        <v>14215532.47670037</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>210871.1517448725</v>
+        <v>15308295.58456307</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>227440.1679087761</v>
+        <v>16215054.32879303</v>
       </c>
     </row>
   </sheetData>
